--- a/loaded_influencer_data/bwnniewony/bwnniewony_video.xlsx
+++ b/loaded_influencer_data/bwnniewony/bwnniewony_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,79 +506,183 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@bwnniewony/video/7487293104198929719</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>57200</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15600</v>
+      </c>
+      <c r="D2" t="n">
+        <v>506</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2990</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>grwm for the day !! 🍥
+- do not reupload ❕
+#wonyoungism #foryoupage #kbeauty #fyp #skincare</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>28.15734265734266</v>
+      </c>
+      <c r="I2" t="n">
+        <v>27.27272727272727</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5.227272727272727</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@bwnniewony/video/7486940442425085190</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9147</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D3" t="n">
+        <v>108</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>364</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>🫧 the best skincare routine is with @delphyr_official products !!
+- available on Amazon ❕
+#wonyoungism</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>23.1442002842462</v>
+      </c>
+      <c r="I3" t="n">
+        <v>21.96348529572537</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.180714988520827</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.979446813162785</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7486560950363999493</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>22100</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6073</v>
-      </c>
-      <c r="D2" t="n">
-        <v>195</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1127</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="B4" t="n">
+        <v>92000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>21700</v>
+      </c>
+      <c r="D4" t="n">
+        <v>631</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4232</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>before school routine !! 🎀
 - do not reupload ❕
 #wonyoungism #foryoupage #kbeauty #aesthetic</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>28.36199095022625</v>
-      </c>
-      <c r="I2" t="n">
-        <v>27.47963800904977</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5.099547511312217</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="H4" t="n">
+        <v>24.27282608695652</v>
+      </c>
+      <c r="I4" t="n">
+        <v>23.58695652173913</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.6858695652173913</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7484698236364590342</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>75900</v>
-      </c>
-      <c r="C3" t="n">
-        <v>18800</v>
-      </c>
-      <c r="D3" t="n">
-        <v>622</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3824</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="B5" t="n">
+        <v>97300</v>
+      </c>
+      <c r="C5" t="n">
+        <v>23100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>787</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4825</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>selfcare routine !! 🎀
 - do not reupload
@@ -586,52 +690,52 @@
 #aesthetic #Vlog #fyp</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>25.58893280632411</v>
-      </c>
-      <c r="I3" t="n">
-        <v>24.76943346508564</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.8194993412384716</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.038208168642951</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="H5" t="n">
+        <v>24.54984583761562</v>
+      </c>
+      <c r="I5" t="n">
+        <v>23.7410071942446</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8088386433710175</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.958890030832476</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7483984621051415813</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>75300</v>
-      </c>
-      <c r="C4" t="n">
-        <v>18800</v>
-      </c>
-      <c r="D4" t="n">
-        <v>665</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3701</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="B6" t="n">
+        <v>93600</v>
+      </c>
+      <c r="C6" t="n">
+        <v>22500</v>
+      </c>
+      <c r="D6" t="n">
+        <v>788</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4507</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>productive morning vlog 🎀
 - do not reupload !!
@@ -639,833 +743,833 @@
 #aesthetic</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>25.84993359893759</v>
-      </c>
-      <c r="I4" t="n">
-        <v>24.9667994687915</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.8831341301460823</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.915006640106242</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2025-03-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="H6" t="n">
+        <v>24.88034188034188</v>
+      </c>
+      <c r="I6" t="n">
+        <v>24.03846153846154</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8418803418803418</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.81517094017094</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7482470928555838775</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>19000</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4779</v>
-      </c>
-      <c r="D5" t="n">
-        <v>184</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>893</v>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="B7" t="n">
+        <v>24200</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5860</v>
+      </c>
+      <c r="D7" t="n">
+        <v>211</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>productive morning vlog 🎀
+- do not reupload !!
+#wonyoungism #foryoupage #kbeauty
+#aesthetic</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>25.08677685950413</v>
+      </c>
+      <c r="I7" t="n">
+        <v>24.21487603305785</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.871900826446281</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@bwnniewony/video/7479510301210119429</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>28800</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5860</v>
+      </c>
+      <c r="D8" t="n">
+        <v>211</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>after class vlog !! hope you like it 🥹💗
 - do not reupload ❕
 #wonyoungism #foryoupage #kbeauty #aesthetic</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>26.12105263157894</v>
-      </c>
-      <c r="I5" t="n">
-        <v>25.15263157894737</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.968421052631579</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="H8" t="n">
+        <v>21.07986111111111</v>
+      </c>
+      <c r="I8" t="n">
+        <v>20.34722222222222</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.732638888888889</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.819444444444445</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@bwnniewony/video/7479510301210119429</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>25100</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5828</v>
-      </c>
-      <c r="D6" t="n">
-        <v>215</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1026</v>
-      </c>
-      <c r="G6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@bwnniewony/video/7478399711104306487</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>113600</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6504</v>
+      </c>
+      <c r="D9" t="n">
+        <v>230</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1141</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>what’s in my makeup bag? 💭
 - do not reupload 🎀
 #wonyoungism #foryoupage #kbeauty #aesthetic</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>24.07569721115538</v>
-      </c>
-      <c r="I6" t="n">
-        <v>23.2191235059761</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.8565737051792829</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.087649402390438</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="H9" t="n">
+        <v>5.927816901408451</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.725352112676056</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.2024647887323943</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.004401408450704</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@bwnniewony/video/7478399711104306487</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>94300</v>
-      </c>
-      <c r="C7" t="n">
-        <v>24200</v>
-      </c>
-      <c r="D7" t="n">
-        <v>827</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4693</v>
-      </c>
-      <c r="G7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@bwnniewony/video/7477628935530908934</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>30800</v>
+      </c>
+      <c r="C10" t="n">
+        <v>29300</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1035</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5783</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>morning vlog !! 💭🎀
 - do not reupload
 #wonyoungism #foryoupage #kbeauty #aesthetic #vlog #fyp</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>26.53976670201484</v>
-      </c>
-      <c r="I7" t="n">
-        <v>25.6627783669141</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.8769883351007424</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.976670201484624</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="H10" t="n">
+        <v>98.49025974025975</v>
+      </c>
+      <c r="I10" t="n">
+        <v>95.12987012987013</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.36038961038961</v>
+      </c>
+      <c r="L10" t="n">
+        <v>18.77597402597403</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@bwnniewony/video/7477628935530908934</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>27500</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6019</v>
-      </c>
-      <c r="D8" t="n">
-        <v>222</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1148</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>night routine vlog 🎀
-- do not reupload 💭
-୨ৎ i’ll try to be more active, i promise 🤞🏻
-#wonyoungism</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>22.69454545454545</v>
-      </c>
-      <c r="I8" t="n">
-        <v>21.88727272727273</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.8072727272727274</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.174545454545455</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7475068812509957431</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B11" t="n">
         <v>29600</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C11" t="n">
         <v>6465</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D11" t="n">
         <v>209</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>1127</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>aespa concert vlog in mexico city !! 🤍
 - do not reupload or use my videos ☺️
 #wonyoungism #foryoupage</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H11" t="n">
         <v>22.5472972972973</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I11" t="n">
         <v>21.84121621621622</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.706081081081081</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L11" t="n">
         <v>3.807432432432432</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7472453749567458566</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B12" t="n">
         <v>27400</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C12" t="n">
         <v>5495</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D12" t="n">
         <v>206</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>1028</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>trip vlog !!
 - do not reupload ☁️
 #wonyoungism #foryoupage #kbeauty #aesthetic #travel #tripvlog #cancun</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H12" t="n">
         <v>20.80656934306569</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I12" t="n">
         <v>20.05474452554745</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.7518248175182483</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L12" t="n">
         <v>3.751824817518248</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7469500959652154679</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B13" t="n">
         <v>38800</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C13" t="n">
         <v>7403</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D13" t="n">
         <v>229</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>1260</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>travel vlog ✈️🎀
 - do not reupload ☺️
 #wonyoungism #foryoupage #kbeauty #aesthetic #travel</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H13" t="n">
         <v>19.67010309278351</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I13" t="n">
         <v>19.07989690721649</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.5902061855670103</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L13" t="n">
         <v>3.247422680412372</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-02-10</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7467640841004338438</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B14" t="n">
         <v>41200</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C14" t="n">
         <v>9195</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D14" t="n">
         <v>419</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>1754</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>wonyoungism♡ྀི ₊
 - do not reupload 🎀
 #wonyoungism #foryoupage #kbeauty #aesthetic #pink #skincare</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H14" t="n">
         <v>23.33495145631068</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I14" t="n">
         <v>22.31796116504854</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1.016990291262136</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L14" t="n">
         <v>4.257281553398058</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-02-05</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7466527027185650950</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B15" t="n">
         <v>81400</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C15" t="n">
         <v>19500</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D15" t="n">
         <v>1035</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>4155</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>grwm to go out ! 🎀
 - do not reupload ☺️
 #wonyoungism #foryoupage #kbeauty #aesthetic #pink #skincare</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H15" t="n">
         <v>25.22727272727273</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I15" t="n">
         <v>23.95577395577396</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1.271498771498772</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L15" t="n">
         <v>5.104422604422605</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-02-02</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7465408820496387333</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B16" t="n">
         <v>67500</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C16" t="n">
         <v>15400</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D16" t="n">
         <v>763</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>3059</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>nighttime vlog ⋅˚₊‧ ୨୧ ‧₊˚ ⋅
 - do not reupload ! 🎀
 #wonyoungism #foryoupage #kbeauty #aesthetic</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H16" t="n">
         <v>23.94518518518518</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I16" t="n">
         <v>22.81481481481482</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1.13037037037037</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L16" t="n">
         <v>4.531851851851852</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-01-30</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7463552483361705222</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B17" t="n">
         <v>38100</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C17" t="n">
         <v>6135</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D17" t="n">
         <v>235</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>1185</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>The best Essence for Smooth and Glowy skin! 🫧
 - Bean Essence from @Mixsoon US Official
 - tags: #mixsoon</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H17" t="n">
         <v>16.71916010498688</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I17" t="n">
         <v>16.10236220472441</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.6167979002624672</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L17" t="n">
         <v>3.110236220472441</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-01-25</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7463176414901112069</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B18" t="n">
         <v>121400</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C18" t="n">
         <v>27700</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D18" t="n">
         <v>1252</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>5861</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>mini evening vlog ! 🎀
 - do not reupload 😽
 #wonyoungism #aesthetic #pink #foryoupage #koreanskincare</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H18" t="n">
         <v>23.84843492586491</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I18" t="n">
         <v>22.8171334431631</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>1.031301482701812</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L18" t="n">
         <v>4.827841845140033</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-01-24</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7462801705520942342</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B19" t="n">
         <v>21000</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C19" t="n">
         <v>2630</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D19" t="n">
         <v>84</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>451</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>customize a phone case with me! ft. @Hugifts 🎀
 - do not reupload 😽
 #Hugifts #hugiftshub #wonyoungism</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H19" t="n">
         <v>12.92380952380952</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I19" t="n">
         <v>12.52380952380952</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.4</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L19" t="n">
         <v>2.147619047619048</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-01-23</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7462429853128641798</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B20" t="n">
         <v>108900</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C20" t="n">
         <v>26300</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D20" t="n">
         <v>631</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>4755</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>makeup routine ! 🎀
 - do not reupload 😽
 #wonyoungism #kbeauty #aesthetic #pink #foryoupage #makeup</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H20" t="n">
         <v>24.73002754820936</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I20" t="n">
         <v>24.1505968778696</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.5794306703397613</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L20" t="n">
         <v>4.366391184573002</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-01-22</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7461701238485191942</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B21" t="n">
         <v>156100</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C21" t="n">
         <v>36800</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D21" t="n">
         <v>1839</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>7717</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>morning vlog !! (waking up at 5 am) 💓
 - do not reupload
 #wonyoungism #kbeauty #foryoupage #aesthetic</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H21" t="n">
         <v>24.75272261370916</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I21" t="n">
         <v>23.57463164638052</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>1.178090967328635</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L21" t="n">
         <v>4.943625880845611</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-01-20</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7460943500717067526</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B22" t="n">
         <v>38800</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C22" t="n">
         <v>7278</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D22" t="n">
         <v>238</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>1211</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>wakemake soft blurring eye palette ! 🎀
 (10 lazy pink blurring)
@@ -1473,827 +1577,827 @@
 #wonyoungism #kbeauty</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H22" t="n">
         <v>19.37113402061856</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I22" t="n">
         <v>18.75773195876289</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.6134020618556701</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L22" t="n">
         <v>3.121134020618557</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-01-18</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7460214233561697542</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B23" t="n">
         <v>27400</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C23" t="n">
         <v>4405</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D23" t="n">
         <v>152</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>726</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Skincare Routine with @Mixsoon US Official 🫧
 - tags: #mixsoon
 #koreanskincare #glassskin</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H23" t="n">
         <v>16.63138686131387</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I23" t="n">
         <v>16.07664233576642</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.5547445255474452</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L23" t="n">
         <v>2.64963503649635</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-01-16</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7459128876862590214</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B24" t="n">
         <v>44500</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C24" t="n">
         <v>10100</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D24" t="n">
         <v>553</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>2090</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>morning vlog !! 🎀
 - do not reupload 😚
 #wonyoungism #foryoupage #kbeauty #aesthetic #pink</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H24" t="n">
         <v>23.93932584269663</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I24" t="n">
         <v>22.69662921348315</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>1.242696629213483</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L24" t="n">
         <v>4.696629213483146</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-01-13</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7456866015817895174</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B25" t="n">
         <v>22700</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C25" t="n">
         <v>2971</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D25" t="n">
         <v>128</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>546</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>How to get rid of excessive sebum production (Mixsoon Bean Essence)! 🤍🫘
 @Mixsoon US Official ✨
 - tags:</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H25" t="n">
         <v>13.65198237885463</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I25" t="n">
         <v>13.08810572687225</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.5638766519823789</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L25" t="n">
         <v>2.405286343612335</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-01-07</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7456518533602659590</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B26" t="n">
         <v>46900</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C26" t="n">
         <v>10800</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D26" t="n">
         <v>650</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>2253</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>get ready with me + shopping 🎀
 - do not reupload ₊˚⊹ ᰔ
 #wonyoungism #foryoupage #kbeauty #aesthetic</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H26" t="n">
         <v>24.4136460554371</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I26" t="n">
         <v>23.02771855010661</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>1.38592750533049</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L26" t="n">
         <v>4.803837953091684</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-01-06</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7455008023572958469</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B27" t="n">
         <v>26800</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C27" t="n">
         <v>3550</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D27" t="n">
         <v>143</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>578</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>you found the best sun cream ever! (Mixsoon Centella Suncream) ✨
 @Mixsoon US Official
 - tags:</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H27" t="n">
         <v>13.77985074626866</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I27" t="n">
         <v>13.24626865671642</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.5335820895522387</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L27" t="n">
         <v>2.156716417910448</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-01-02</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7454662900733447429</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B28" t="n">
         <v>325700</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C28" t="n">
         <v>74500</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D28" t="n">
         <v>3245</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>14700</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>productive morning vlog 🎀
 - do not reupload without my consent ☺️
 #wonyoungism #kbeauty #foryoupage</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H28" t="n">
         <v>23.87012588271416</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I28" t="n">
         <v>22.87381025483574</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.9963156278784158</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L28" t="n">
         <v>4.513355848940743</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-01-01</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7453920033870220549</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B29" t="n">
         <v>3100000</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C29" t="n">
         <v>47800</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D29" t="n">
         <v>310</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>2832</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Viral essence for glowy skin (Mixsoon Bean Essence)!
 @Mixsoon US Official
 - tags: #mixsoon</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H29" t="n">
         <v>1.551935483870968</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I29" t="n">
         <v>1.541935483870968</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.01</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L29" t="n">
         <v>0.09135483870967742</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2024-12-30</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7452798851427224837</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B30" t="n">
         <v>31100</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C30" t="n">
         <v>5364</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D30" t="n">
         <v>167</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>916</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>christmas haul !!
 #wonyoungism #aesthetic #pink #foryoupage #haul #christmashaul #bwnniewony</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H30" t="n">
         <v>17.78456591639872</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I30" t="n">
         <v>17.2475884244373</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.5369774919614148</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L30" t="n">
         <v>2.945337620578778</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2024-12-27</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7452430373230873861</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B31" t="n">
         <v>46500</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C31" t="n">
         <v>9649</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D31" t="n">
         <v>417</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>1679</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>grwm for christmas !! 🤍🎄
 - do not reupload !!
 #wonyoungism #aesthetic #pink #foryoupage</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H31" t="n">
         <v>21.64731182795699</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I31" t="n">
         <v>20.7505376344086</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.8967741935483871</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L31" t="n">
         <v>3.610752688172043</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2024-12-26</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7452067719186222342</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B32" t="n">
         <v>645400</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C32" t="n">
         <v>132100</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D32" t="n">
         <v>5754</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>26200</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>morning vlog 🎀
 #wonyoungism #aesthetic #pink #foryoupage #kbeauty #vlog #bwnniewony</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H32" t="n">
         <v>21.35946699721103</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I32" t="n">
         <v>20.46792686705919</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.8915401301518439</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L32" t="n">
         <v>4.059497985745274</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2024-12-25</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7451365541094116613</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B33" t="n">
         <v>69300</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C33" t="n">
         <v>16400</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D33" t="n">
         <v>968</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>2997</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>birthday vlog !! 🤍
 #wonyoungism #aesthetic #pink #foryoupage #happybirthday #kbeauty #vlog #birthdayvlog</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H33" t="n">
         <v>25.06204906204906</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I33" t="n">
         <v>23.66522366522366</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>1.396825396825397</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L33" t="n">
         <v>4.324675324675325</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2024-12-23</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7450195662177635590</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B34" t="n">
         <v>36800</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C34" t="n">
         <v>6919</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D34" t="n">
         <v>195</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>1319</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>ideas for your Christmas list ♡
 - do not reupload 🎀
 #wonyoungism #aesthetic #pink #foryoupage</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H34" t="n">
         <v>19.33152173913044</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I34" t="n">
         <v>18.80163043478261</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.5298913043478261</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L34" t="n">
         <v>3.584239130434783</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2024-12-20</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7449856776654130438</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B35" t="n">
         <v>36200</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C35" t="n">
         <v>6371</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D35" t="n">
         <v>270</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>1232</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>hand care routine (for soft hands and long nails) 🎀☁️
 - products from @Millefee / ミルフィー (Airy Hand Cream) 🤍</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H35" t="n">
         <v>18.34530386740331</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I35" t="n">
         <v>17.59944751381216</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.7458563535911602</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L35" t="n">
         <v>3.403314917127072</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2024-12-19</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7449077115355483397</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B36" t="n">
         <v>34100</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C36" t="n">
         <v>6649</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D36" t="n">
         <v>288</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>1132</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>pink Christmas 🎀❄️
 - do not reupload!
 #wonyoungism #wonyoungisme #pinkchristmas #christmas</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H36" t="n">
         <v>20.34310850439883</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I36" t="n">
         <v>19.49853372434017</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.8445747800586511</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L36" t="n">
         <v>3.319648093841642</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2024-12-17</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7448712410082315526</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B37" t="n">
         <v>130000</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C37" t="n">
         <v>32600</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D37" t="n">
         <v>1973</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>7245</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>morning vlog ♡ྀི ₊
 #wonyoungism #foryoupage #skincare #kbeauty #morningroutine #bwnniewony #vlog</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H37" t="n">
         <v>26.59461538461538</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I37" t="n">
         <v>25.07692307692307</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>1.517692307692308</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L37" t="n">
         <v>5.573076923076923</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2024-12-16</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7447216595220385030</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B38" t="n">
         <v>20300</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C38" t="n">
         <v>2483</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D38" t="n">
         <v>114</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>434</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Secret essence for textured skin!
 - Mixsoon Soondy Centella Asiatica Essence 🤍
@@ -2301,103 +2405,103 @@
 #mixsoon</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H38" t="n">
         <v>12.79310344827586</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I38" t="n">
         <v>12.23152709359606</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.5615763546798029</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L38" t="n">
         <v>2.137931034482758</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2024-12-12</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7446870825451523333</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B39" t="n">
         <v>25400</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C39" t="n">
         <v>3357</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D39" t="n">
         <v>176</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>605</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>The perfect Essence for acne and breakouts!
 - Mixsoon Soondy Centella Asiatica Essence 🤍</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H39" t="n">
         <v>13.90944881889764</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I39" t="n">
         <v>13.21653543307087</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.6929133858267716</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L39" t="n">
         <v>2.381889763779528</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2024-12-11</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7445371646359145733</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B40" t="n">
         <v>39200</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C40" t="n">
         <v>6002</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D40" t="n">
         <v>195</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>1071</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>my favorite serum!
 - Mixsoon Glacier Water Hyaluronic Acid Serum 🤍
@@ -2405,649 +2509,598 @@
 #mixsoon</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H40" t="n">
         <v>15.80867346938775</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I40" t="n">
         <v>15.31122448979592</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.4974489795918367</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L40" t="n">
         <v>2.732142857142857</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2024-12-7</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7443899089269345591</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B41" t="n">
         <v>863100</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C41" t="n">
         <v>163600</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D41" t="n">
         <v>6883</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>33200</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>night routine !! 🎀
 - do not reupload
 #wonyoungism #kbeauty #pink #aesthetic #vlog #foryoupage #nightroutine #skincare</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H41" t="n">
         <v>19.7524041246669</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I41" t="n">
         <v>18.95492990383501</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.797474220831885</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L41" t="n">
         <v>3.846599467037423</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2024-12-3</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7442787374955793719</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B42" t="n">
         <v>2300000</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C42" t="n">
         <v>35400</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D42" t="n">
         <v>193</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>2962</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>the best Sun Cream to use before doing your makeup (Mixsoon Centella Suncream)!
 @Mixsoon US Official
 - Smooth and long-lasting base!</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H42" t="n">
         <v>1.547521739130435</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I42" t="n">
         <v>1.539130434782609</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.008391304347826088</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L42" t="n">
         <v>0.1287826086956522</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2024-11-30</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7442402739893620024</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B43" t="n">
         <v>305100</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C43" t="n">
         <v>10500</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D43" t="n">
         <v>174</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>1133</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>testing the Korea’s number 1 serum (Mixsoon Bean Essence)!
 @Mixsoon US Official
 - Alavaible at their Brand Store in Amazon! On sale during Amazon Black Friday 💭</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H43" t="n">
         <v>3.498525073746313</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I43" t="n">
         <v>3.44149459193707</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.05703048180924288</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L43" t="n">
         <v>0.3713536545394953</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2024-11-29</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7442072080545320247</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B44" t="n">
         <v>38600</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C44" t="n">
         <v>8196</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D44" t="n">
         <v>339</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>1621</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>morning vlog !! 🎀
 - do not reupload
 #wonyoungism #pink #foryoupage #aesthetic #bwnniewony #kbeauty</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H44" t="n">
         <v>22.11139896373057</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I44" t="n">
         <v>21.23316062176166</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.8782383419689119</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L44" t="n">
         <v>4.199481865284974</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2024-11-28</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7440539471788903736</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B45" t="n">
         <v>56300</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C45" t="n">
         <v>11400</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D45" t="n">
         <v>347</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>2049</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>spend a morning with me !! 🎀
 - do not repost 🩶
 #wonyoungism #pink #foryoupage #aesthetic</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H45" t="n">
         <v>20.86500888099467</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I45" t="n">
         <v>20.24866785079929</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.6163410301953819</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L45" t="n">
         <v>3.63943161634103</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2024-11-24</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7437941585662446903</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B46" t="n">
         <v>65099</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C46" t="n">
         <v>9893</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D46" t="n">
         <v>244</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>1868</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>organize my new cart with me !!
 - do not repost 🫶🏻🎀
 - tags: #wonyoungism #pink #foryoupage #aesthetic</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H46" t="n">
         <v>15.57166776755403</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I46" t="n">
         <v>15.19685402233521</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.3748137452188205</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L46" t="n">
         <v>2.869475721593266</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2024-11-17</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7436457642106703159</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B47" t="n">
         <v>109700</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C47" t="n">
         <v>27200</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D47" t="n">
         <v>1100</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>5586</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>morning with me at home 🎀
 - do not repost !!
 #wonyoungism #pink #foryoupage #aesthetic #kbeauty</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H47" t="n">
         <v>25.79762989972653</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I47" t="n">
         <v>24.79489516864175</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>1.002734731084777</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L47" t="n">
         <v>5.092069279854148</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2024-11-13</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7435373050968788279</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B48" t="n">
         <v>186500</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C48" t="n">
         <v>41200</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D48" t="n">
         <v>1134</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>8184</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>night time skincare ₊˚⊹ ᰔ 🎀
 - do not repost !!
 #wonyoungism #pink #foryoupage #aesthetic</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H48" t="n">
         <v>22.69919571045576</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I48" t="n">
         <v>22.09115281501341</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.6080428954423592</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L48" t="n">
         <v>4.388203753351207</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2024-11-10</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7434259597789105463</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B49" t="n">
         <v>445200</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C49" t="n">
         <v>83100</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D49" t="n">
         <v>3012</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>18600</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>my night routine !! 🎀💭
 - do not reupload 💗
 #wonyoungism #pink #foryoupage #aesthetic #kbeauty #vlog</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H49" t="n">
         <v>19.34231805929919</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I49" t="n">
         <v>18.66576819407008</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.6765498652291104</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L49" t="n">
         <v>4.177897574123989</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2024-11-7</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7432744444308262150</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B50" t="n">
         <v>154100</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C50" t="n">
         <v>32500</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D50" t="n">
         <v>969</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>6734</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>my night routine !! 🎀💭
 - do not reupload 💗
 #wonyoungism #pink #foryoupage #aesthetic #kbeauty #vlog</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="H50" t="n">
         <v>21.7190136275146</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I50" t="n">
         <v>21.09020116807268</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.6288124594419209</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L50" t="n">
         <v>4.36988968202466</v>
       </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2024-11-3</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bwnniewony/video/7431672575865933062</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B51" t="n">
         <v>50800</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C51" t="n">
         <v>10300</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D51" t="n">
         <v>345</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>2049</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>organize with me my “getting ready” mess 🎀
 #wonyoungism #aesthetic #kbeauty #foryoupage #pink</t>
         </is>
       </c>
-      <c r="H49" t="n">
+      <c r="H51" t="n">
         <v>20.95472440944882</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I51" t="n">
         <v>20.2755905511811</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.6791338582677166</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L51" t="n">
         <v>4.033464566929134</v>
       </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2024-10-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@bwnniewony/video/7430151322260884742</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>73000</v>
-      </c>
-      <c r="C50" t="n">
-        <v>16200</v>
-      </c>
-      <c r="D50" t="n">
-        <v>760</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>3684</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>grwm in pink 🎀
-#wonyoungism #aesthetic #kbeauty #foryoupage #grwm #pink #gettingready</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>23.23287671232877</v>
-      </c>
-      <c r="I50" t="n">
-        <v>22.19178082191781</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1.041095890410959</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.046575342465753</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2024-10-27</t>
         </is>
       </c>
     </row>
